--- a/products/manuscript/supplementary_materials/supplemental_tables.xlsx
+++ b/products/manuscript/supplementary_materials/supplemental_tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannah/Documents/OSUDocs/Projects/Disease_LHS/GCMP_Global_Disease/products/manuscript/supplementary_materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86FB33B-7FD9-5343-8C2C-51F075ED4969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD715EE5-DFFC-9146-87FC-E4CE32025EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="500" windowWidth="22780" windowHeight="15280" xr2:uid="{42C5DB18-6696-0944-B339-FA9DF0685468}"/>
+    <workbookView xWindow="13080" yWindow="500" windowWidth="22780" windowHeight="15280" activeTab="2" xr2:uid="{42C5DB18-6696-0944-B339-FA9DF0685468}"/>
   </bookViews>
   <sheets>
     <sheet name="Table S1 - Sample Summary" sheetId="1" r:id="rId1"/>
@@ -4901,7 +4901,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4912,6 +4912,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4930,9 +4932,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5249,7 +5248,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FBCDD98-449C-BD4F-BBAF-4A889EF93CB9}">
   <dimension ref="A1:H260"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -5261,28 +5260,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:8" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -12012,28 +12011,28 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="24" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:8" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -12049,23 +12048,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62DA3218-24A2-BB4F-AF40-2F558A43A4C5}">
   <dimension ref="A1:AP103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:42" ht="24" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
@@ -12075,16 +12074,16 @@
       <c r="O1" s="5"/>
     </row>
     <row r="2" spans="1:42" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -12094,16 +12093,16 @@
       <c r="O2" s="4"/>
     </row>
     <row r="3" spans="1:42" s="2" customFormat="1" ht="135" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -24933,28 +24932,28 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="24" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:8" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -24977,67 +24976,67 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:47" ht="24" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:47" ht="125" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>1593</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="13"/>
-      <c r="AG2" s="13"/>
-      <c r="AH2" s="13"/>
-      <c r="AI2" s="13"/>
-      <c r="AJ2" s="13"/>
-      <c r="AK2" s="13"/>
-      <c r="AL2" s="13"/>
-      <c r="AM2" s="13"/>
-      <c r="AN2" s="13"/>
-      <c r="AO2" s="13"/>
-      <c r="AP2" s="13"/>
-      <c r="AQ2" s="13"/>
-      <c r="AR2" s="13"/>
-      <c r="AS2" s="13"/>
-      <c r="AT2" s="13"/>
-      <c r="AU2" s="13"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="7"/>
+      <c r="AP2" s="7"/>
+      <c r="AQ2" s="7"/>
+      <c r="AR2" s="7"/>
+      <c r="AS2" s="7"/>
+      <c r="AT2" s="7"/>
+      <c r="AU2" s="7"/>
     </row>
     <row r="3" spans="1:47" s="1" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -25264,7 +25263,7 @@
       <c r="AA4">
         <v>0.96688610600000002</v>
       </c>
-      <c r="AB4" s="12">
+      <c r="AB4" s="6">
         <v>4.1499999999999999E-5</v>
       </c>
       <c r="AC4">
@@ -26345,7 +26344,7 @@
       <c r="F12" t="s">
         <v>292</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="6">
         <v>6.8700000000000003E-5</v>
       </c>
       <c r="H12">
@@ -29065,7 +29064,7 @@
       <c r="G31">
         <v>0.98901155200000002</v>
       </c>
-      <c r="H31" s="12">
+      <c r="H31" s="6">
         <v>5.0599999999999998E-6</v>
       </c>
       <c r="I31">
@@ -29351,7 +29350,7 @@
       <c r="G33">
         <v>0.95744797999999998</v>
       </c>
-      <c r="H33" s="12">
+      <c r="H33" s="6">
         <v>7.2100000000000004E-5</v>
       </c>
       <c r="I33">
@@ -30013,7 +30012,7 @@
       <c r="AK37">
         <v>0.95953687300000001</v>
       </c>
-      <c r="AL37" s="12">
+      <c r="AL37" s="6">
         <v>6.5199999999999999E-5</v>
       </c>
       <c r="AM37">
@@ -30484,7 +30483,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B76A944-CF9C-244E-91DA-3BE5A4639D06}">
-  <dimension ref="A1:AU194"/>
+  <dimension ref="A1:Q194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H2"/>
@@ -30492,70 +30491,40 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:47" ht="24" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:17" ht="24" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:47" ht="125" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:17" ht="125" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>1592</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="14"/>
-      <c r="AF2" s="14"/>
-      <c r="AG2" s="14"/>
-      <c r="AH2" s="14"/>
-      <c r="AI2" s="14"/>
-      <c r="AJ2" s="14"/>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="14"/>
-      <c r="AN2" s="14"/>
-      <c r="AO2" s="14"/>
-      <c r="AP2" s="14"/>
-      <c r="AQ2" s="14"/>
-      <c r="AR2" s="14"/>
-      <c r="AS2" s="14"/>
-      <c r="AT2" s="14"/>
-      <c r="AU2" s="14"/>
-    </row>
-    <row r="3" spans="1:47" s="1" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+    </row>
+    <row r="3" spans="1:17" s="1" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>241</v>
       </c>
@@ -30608,7 +30577,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>631</v>
       </c>
@@ -30655,7 +30624,7 @@
         <v>309.57202239999998</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>631</v>
       </c>
@@ -30702,7 +30671,7 @@
         <v>292.91570760000002</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>631</v>
       </c>
@@ -30749,7 +30718,7 @@
         <v>303.73340330000002</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>631</v>
       </c>
@@ -30802,7 +30771,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>631</v>
       </c>
@@ -30849,7 +30818,7 @@
         <v>-42.611030229999997</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>631</v>
       </c>
@@ -30896,7 +30865,7 @@
         <v>-43.863950279999997</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>631</v>
       </c>
@@ -30943,7 +30912,7 @@
         <v>-46.231731789999998</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>631</v>
       </c>
@@ -30996,7 +30965,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>631</v>
       </c>
@@ -31043,7 +31012,7 @@
         <v>13.648044179999999</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>631</v>
       </c>
@@ -31090,7 +31059,7 @@
         <v>-6.7146159350000003</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>631</v>
       </c>
@@ -31137,7 +31106,7 @@
         <v>7.2033932979999999</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>631</v>
       </c>
@@ -31156,7 +31125,7 @@
       <c r="F15" t="s">
         <v>306</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="6">
         <v>6.1299999999999999E-5</v>
       </c>
       <c r="H15">
@@ -31190,7 +31159,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>663</v>
       </c>
@@ -31600,7 +31569,7 @@
       <c r="G24">
         <v>0.99335345799999997</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="6">
         <v>3.23E-6</v>
       </c>
       <c r="I24">
@@ -31694,7 +31663,7 @@
       <c r="G26">
         <v>0.96644817299999997</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H26" s="6">
         <v>8.2299999999999995E-5</v>
       </c>
       <c r="I26">
@@ -32858,7 +32827,7 @@
       <c r="G50">
         <v>0.974122037</v>
       </c>
-      <c r="H50" s="12">
+      <c r="H50" s="6">
         <v>4.8900000000000003E-5</v>
       </c>
       <c r="I50">
@@ -36303,7 +36272,7 @@
       <c r="G121">
         <v>0.97359276800000005</v>
       </c>
-      <c r="H121" s="12">
+      <c r="H121" s="6">
         <v>5.3399999999999997E-5</v>
       </c>
       <c r="I121">
@@ -38537,7 +38506,7 @@
       <c r="G167">
         <v>0.99842402200000002</v>
       </c>
-      <c r="H167" s="12">
+      <c r="H167" s="6">
         <v>1.8099999999999999E-7</v>
       </c>
       <c r="I167">
@@ -38631,7 +38600,7 @@
       <c r="G169">
         <v>0.978784294</v>
       </c>
-      <c r="H169" s="12">
+      <c r="H169" s="6">
         <v>3.29E-5</v>
       </c>
       <c r="I169">
@@ -39884,7 +39853,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F60FC05-E8D3-ED4B-A8A8-E111408BC6DF}">
-  <dimension ref="A1:AU295"/>
+  <dimension ref="A1:Q295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
@@ -39892,70 +39861,40 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:47" ht="24" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:17" ht="24" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:47" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:17" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>1594</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="14"/>
-      <c r="AF2" s="14"/>
-      <c r="AG2" s="14"/>
-      <c r="AH2" s="14"/>
-      <c r="AI2" s="14"/>
-      <c r="AJ2" s="14"/>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="14"/>
-      <c r="AN2" s="14"/>
-      <c r="AO2" s="14"/>
-      <c r="AP2" s="14"/>
-      <c r="AQ2" s="14"/>
-      <c r="AR2" s="14"/>
-      <c r="AS2" s="14"/>
-      <c r="AT2" s="14"/>
-      <c r="AU2" s="14"/>
-    </row>
-    <row r="3" spans="1:47" s="1" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+    </row>
+    <row r="3" spans="1:17" s="1" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>241</v>
       </c>
@@ -40008,7 +39947,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>288</v>
       </c>
@@ -40055,7 +39994,7 @@
         <v>-14.148976960000001</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>288</v>
       </c>
@@ -40102,7 +40041,7 @@
         <v>-48.92972769</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>288</v>
       </c>
@@ -40149,7 +40088,7 @@
         <v>-23.014076930000002</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>288</v>
       </c>
@@ -40202,7 +40141,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>288</v>
       </c>
@@ -40249,7 +40188,7 @@
         <v>74.392338859999995</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>288</v>
       </c>
@@ -40296,7 +40235,7 @@
         <v>36.880288880000002</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>288</v>
       </c>
@@ -40343,7 +40282,7 @@
         <v>65.406222490000005</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>288</v>
       </c>
@@ -40396,7 +40335,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>334</v>
       </c>
@@ -40443,7 +40382,7 @@
         <v>-14.532595799999999</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>334</v>
       </c>
@@ -40490,7 +40429,7 @@
         <v>-54.048288909999997</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>334</v>
       </c>
@@ -40537,7 +40476,7 @@
         <v>-23.642340879999999</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>334</v>
       </c>
@@ -40590,7 +40529,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>334</v>
       </c>
@@ -40806,7 +40745,7 @@
       <c r="G20">
         <v>0.98241731099999996</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="6">
         <v>1.17E-5</v>
       </c>
       <c r="I20">
@@ -40900,7 +40839,7 @@
       <c r="G22">
         <v>0.95495187299999995</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="6">
         <v>7.6899999999999999E-5</v>
       </c>
       <c r="I22">
@@ -40947,7 +40886,7 @@
       <c r="G23">
         <v>0.949756669</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="6">
         <v>9.5699999999999995E-5</v>
       </c>
       <c r="I23">
@@ -41141,7 +41080,7 @@
       <c r="G27">
         <v>0.96900658500000003</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H27" s="6">
         <v>3.6399999999999997E-5</v>
       </c>
       <c r="I27">
@@ -41776,7 +41715,7 @@
       <c r="G40">
         <v>0.96276119699999996</v>
       </c>
-      <c r="H40" s="12">
+      <c r="H40" s="6">
         <v>5.8100000000000003E-5</v>
       </c>
       <c r="I40">
@@ -41917,7 +41856,7 @@
       <c r="G43">
         <v>0.95284831400000003</v>
       </c>
-      <c r="H43" s="12">
+      <c r="H43" s="6">
         <v>9.3200000000000002E-5</v>
       </c>
       <c r="I43">
@@ -43181,7 +43120,7 @@
       <c r="G69">
         <v>0.99799716900000002</v>
       </c>
-      <c r="H69" s="12">
+      <c r="H69" s="6">
         <v>1.68E-7</v>
       </c>
       <c r="I69">
@@ -44492,7 +44431,7 @@
       <c r="G96">
         <v>0.96693749900000003</v>
       </c>
-      <c r="H96" s="12">
+      <c r="H96" s="6">
         <v>4.35E-5</v>
       </c>
       <c r="I96">
@@ -44586,7 +44525,7 @@
       <c r="G98">
         <v>0.95689001299999998</v>
       </c>
-      <c r="H98" s="12">
+      <c r="H98" s="6">
         <v>7.3999999999999996E-5</v>
       </c>
       <c r="I98">
@@ -45850,7 +45789,7 @@
       <c r="G124">
         <v>0.95855845200000001</v>
       </c>
-      <c r="H124" s="12">
+      <c r="H124" s="6">
         <v>7.2000000000000002E-5</v>
       </c>
       <c r="I124">
@@ -45944,7 +45883,7 @@
       <c r="G126">
         <v>0.97596964200000003</v>
       </c>
-      <c r="H126" s="12">
+      <c r="H126" s="6">
         <v>2.4199999999999999E-5</v>
       </c>
       <c r="I126">
@@ -45991,7 +45930,7 @@
       <c r="G127">
         <v>0.99188684699999996</v>
       </c>
-      <c r="H127" s="12">
+      <c r="H127" s="6">
         <v>2.7599999999999998E-6</v>
       </c>
       <c r="I127">
@@ -47790,7 +47729,7 @@
       <c r="G164">
         <v>0.99482437700000004</v>
       </c>
-      <c r="H164" s="12">
+      <c r="H164" s="6">
         <v>1.1200000000000001E-6</v>
       </c>
       <c r="I164">
@@ -47884,7 +47823,7 @@
       <c r="G166">
         <v>0.97260148099999999</v>
       </c>
-      <c r="H166" s="12">
+      <c r="H166" s="6">
         <v>3.15E-5</v>
       </c>
       <c r="I166">
@@ -49727,7 +49666,7 @@
       <c r="F204" t="s">
         <v>292</v>
       </c>
-      <c r="G204" s="12">
+      <c r="G204" s="6">
         <v>2.74E-6</v>
       </c>
       <c r="H204">
@@ -49821,7 +49760,7 @@
       <c r="F206" t="s">
         <v>301</v>
       </c>
-      <c r="G206" s="12">
+      <c r="G206" s="6">
         <v>4.8199999999999996E-6</v>
       </c>
       <c r="H206">
@@ -53075,7 +53014,7 @@
       <c r="G273">
         <v>0.98456506600000004</v>
       </c>
-      <c r="H273" s="12">
+      <c r="H273" s="6">
         <v>9.4700000000000008E-6</v>
       </c>
       <c r="I273">
